--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Rhea_et_al_2021/Rhea_et_al_2021.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Rhea_et_al_2021/Rhea_et_al_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Rhea_et_al_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A55AB8F-E705-944C-AB52-6B0C5C2CADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ABAD5C-CBEC-2247-B0EC-D6EF270506CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="1460" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="44">
   <si>
     <t>Study_ID</t>
   </si>
@@ -226,14 +226,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -551,3258 +550,3349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7C6567-21D2-984F-88AC-EA2A27125A57}">
   <dimension ref="A1:V573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>40.262369999999997</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-105.59080400000001</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>2017</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>5</v>
       </c>
       <c r="M2">
         <v>5.2058823529411704</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>5.5555555555555801E-3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>2017</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>5</v>
       </c>
       <c r="M3">
         <v>4.3897058823529402</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>5.5555555555555801E-3</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>2017</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>5</v>
       </c>
       <c r="M4">
         <v>4.0147058823529402</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>1.85185185185183E-3</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>2017</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>5</v>
       </c>
       <c r="M5">
         <v>4.1470588235294104</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>2017</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>5</v>
       </c>
       <c r="M6">
         <v>3.6838235294117601</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>5.5555555555555801E-3</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>2017</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>5</v>
       </c>
       <c r="M7">
         <v>3.8382352941176401</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>5.5555555555555801E-3</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>2017</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>5</v>
       </c>
       <c r="M8">
         <v>5.1617647058823497</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="Q8">
         <v>7.4074074074074198E-3</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>2017</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>5</v>
       </c>
       <c r="M9">
         <v>4.7647058823529402</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="Q9">
         <v>1.85185185185183E-3</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>2017</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>5</v>
       </c>
       <c r="M10">
         <v>4.1691176470588198</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="Q10">
         <v>5.5555555555555801E-3</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>2017</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>5</v>
       </c>
       <c r="M11">
         <v>4.98529411764705</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
       <c r="Q11">
         <v>1.6666666666666601E-2</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>2017</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>5</v>
       </c>
       <c r="M12">
         <v>5.0073529411764701</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
       <c r="Q12">
         <v>7.4074074074074198E-3</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>2017</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>5</v>
       </c>
       <c r="M13">
         <v>3.4191176470588198</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>26</v>
       </c>
       <c r="Q13">
         <v>0.14444444444444399</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>2017</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>5</v>
       </c>
       <c r="M14">
         <v>3.1985294117646998</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>26</v>
       </c>
       <c r="Q14">
         <v>4.2592592592592501E-2</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>2017</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>5</v>
       </c>
       <c r="M15">
         <v>3.0441176470588198</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>26</v>
       </c>
       <c r="Q15">
         <v>6.1111111111111102E-2</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>2017</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>5</v>
       </c>
       <c r="M16">
         <v>2.7132352941176401</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>26</v>
       </c>
       <c r="Q16">
         <v>2.5925925925925901E-2</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>2017</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>5</v>
       </c>
       <c r="M17">
         <v>3.1764705882352899</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>26</v>
       </c>
       <c r="Q17">
         <v>0.05</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>2017</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>5</v>
       </c>
       <c r="M18">
         <v>2.8014705882352899</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>26</v>
       </c>
       <c r="Q18">
         <v>5.1851851851851802E-2</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>2017</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>15</v>
       </c>
       <c r="M19">
         <v>1.5</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>2.2222220000000001E-2</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>2017</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>15</v>
       </c>
       <c r="M20">
         <v>1.08088235294117</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>4.8148150000000001E-2</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>2017</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>15</v>
       </c>
       <c r="M21">
         <v>1.5</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>6.8518519999999999E-2</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>2017</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>15</v>
       </c>
       <c r="M22">
         <v>1.83088235294117</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="6">
         <v>5.5555600000000002E-3</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>2017</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>15</v>
       </c>
       <c r="M23">
         <v>1.27941176470588</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>1.2962960000000001E-2</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>2017</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>15</v>
       </c>
       <c r="M24">
         <v>0.97058823529411697</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="6">
         <v>0.47592593</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>2017</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>15</v>
       </c>
       <c r="M25">
         <v>1.4338235294117601</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <v>0.35925926000000002</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>2017</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>15</v>
       </c>
       <c r="M26">
         <v>1.5</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="6">
         <v>0.28888889000000001</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>2017</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>15</v>
       </c>
       <c r="M27">
         <v>1.38970588235294</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>0.37222221999999999</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>2017</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>15</v>
       </c>
       <c r="M28">
         <v>1.0588235294117601</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="6">
         <v>0.33333332999999998</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>15</v>
       </c>
       <c r="M29">
         <v>1.3014705882352899</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" t="s">
         <v>26</v>
       </c>
       <c r="Q29">
         <v>0.405555555555555</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>15</v>
       </c>
       <c r="M30">
         <v>1.2132352941176401</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" t="s">
         <v>26</v>
       </c>
       <c r="Q30">
         <v>0.37962962962962898</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="U30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>15</v>
       </c>
       <c r="M31">
         <v>1.19117647058823</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" t="s">
         <v>26</v>
       </c>
       <c r="Q31">
         <v>0.118518518518518</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R31" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="U31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>15</v>
       </c>
       <c r="M32">
         <v>1.5220588235294099</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" t="s">
         <v>26</v>
       </c>
       <c r="Q32">
         <v>0.31666666666666599</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R32" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>15</v>
       </c>
       <c r="M33">
         <v>3.75</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" t="s">
         <v>26</v>
       </c>
       <c r="Q33">
         <v>0.19814814814814799</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34">
         <v>15</v>
       </c>
       <c r="M34">
         <v>1.7867647058823499</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" t="s">
         <v>26</v>
       </c>
       <c r="Q34">
         <v>0.28518518518518499</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R34" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="1"/>
-      <c r="M35"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="1"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="1"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="1"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="1"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="1"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="1"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="1"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48"/>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="1"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49"/>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="1"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50"/>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="1"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51"/>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="1"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52"/>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="1"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53"/>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="1"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54"/>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="1"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55"/>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="1"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56"/>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="1"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57"/>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="1"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58"/>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="1"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59"/>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="1"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60"/>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="1"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61"/>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="1"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62"/>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="1"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63"/>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="1"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64"/>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="1"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65"/>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="1"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66"/>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="1"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67"/>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="1"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68"/>
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="1"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69"/>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="1"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70"/>
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="1"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71"/>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="1"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72"/>
     </row>
     <row r="73" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="1"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73"/>
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="1"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74"/>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="1"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75"/>
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="1"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76"/>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="1"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77"/>
     </row>
     <row r="78" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="1"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78"/>
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="1"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79"/>
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="1"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80"/>
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="1"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81"/>
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="1"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82"/>
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="1"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83"/>
     </row>
     <row r="84" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="1"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84"/>
     </row>
     <row r="85" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="1"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85"/>
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="1"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86"/>
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="1"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87"/>
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="1"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88"/>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="1"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89"/>
     </row>
     <row r="90" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I90" s="3"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I91" s="3"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I92" s="3"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I93" s="3"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I94" s="3"/>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I95" s="3"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I96" s="3"/>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="3"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="3"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="3"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="3"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="3"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="3"/>
+      <c r="I102" s="2"/>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="3"/>
+      <c r="I103" s="2"/>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="3"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="3"/>
+      <c r="I105" s="2"/>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="3"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="3"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="3"/>
+      <c r="I108" s="2"/>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I109" s="3"/>
+      <c r="I109" s="2"/>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I110" s="3"/>
+      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I111" s="3"/>
+      <c r="I111" s="2"/>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I112" s="3"/>
+      <c r="I112" s="2"/>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I113" s="3"/>
+      <c r="I113" s="2"/>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="3"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="3"/>
+      <c r="I115" s="2"/>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I116" s="3"/>
+      <c r="I116" s="2"/>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I117" s="3"/>
+      <c r="I117" s="2"/>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="3"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I119" s="3"/>
+      <c r="I119" s="2"/>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I120" s="3"/>
+      <c r="I120" s="2"/>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I121" s="3"/>
+      <c r="I121" s="2"/>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I122" s="3"/>
+      <c r="I122" s="2"/>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="3"/>
+      <c r="I123" s="2"/>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I124" s="3"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I125" s="3"/>
+      <c r="I125" s="2"/>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="3"/>
+      <c r="I126" s="2"/>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="3"/>
+      <c r="I127" s="2"/>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="3"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I129" s="3"/>
+      <c r="I129" s="2"/>
     </row>
     <row r="130" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I130" s="3"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I131" s="3"/>
+      <c r="I131" s="2"/>
     </row>
     <row r="132" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I132" s="3"/>
+      <c r="I132" s="2"/>
     </row>
     <row r="133" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I133" s="3"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I134" s="3"/>
+      <c r="I134" s="2"/>
     </row>
     <row r="135" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I135" s="3"/>
-      <c r="K135" s="5"/>
+      <c r="I135" s="2"/>
+      <c r="K135" s="4"/>
     </row>
     <row r="136" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I136" s="3"/>
+      <c r="I136" s="2"/>
     </row>
     <row r="137" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I137" s="3"/>
+      <c r="I137" s="2"/>
     </row>
     <row r="138" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I138" s="3"/>
+      <c r="I138" s="2"/>
     </row>
     <row r="139" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I139" s="3"/>
+      <c r="I139" s="2"/>
     </row>
     <row r="140" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I140" s="3"/>
-      <c r="K140" s="5"/>
+      <c r="I140" s="2"/>
+      <c r="K140" s="4"/>
     </row>
     <row r="141" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I141" s="3"/>
+      <c r="I141" s="2"/>
     </row>
     <row r="142" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I142" s="3"/>
-      <c r="K142" s="5"/>
+      <c r="I142" s="2"/>
+      <c r="K142" s="4"/>
     </row>
     <row r="143" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I143" s="3"/>
-      <c r="K143" s="5"/>
+      <c r="I143" s="2"/>
+      <c r="K143" s="4"/>
     </row>
     <row r="144" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I144" s="3"/>
+      <c r="I144" s="2"/>
     </row>
     <row r="145" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I145" s="3"/>
-      <c r="K145" s="5"/>
+      <c r="I145" s="2"/>
+      <c r="K145" s="4"/>
     </row>
     <row r="146" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I146" s="3"/>
-      <c r="K146" s="5"/>
+      <c r="I146" s="2"/>
+      <c r="K146" s="4"/>
     </row>
     <row r="147" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I147" s="3"/>
+      <c r="I147" s="2"/>
     </row>
     <row r="148" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I148" s="3"/>
-      <c r="K148" s="5"/>
+      <c r="I148" s="2"/>
+      <c r="K148" s="4"/>
     </row>
     <row r="149" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I149" s="3"/>
+      <c r="I149" s="2"/>
     </row>
     <row r="150" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I150" s="3"/>
-      <c r="K150" s="5"/>
+      <c r="I150" s="2"/>
+      <c r="K150" s="4"/>
     </row>
     <row r="151" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I151" s="3"/>
-      <c r="K151" s="5"/>
+      <c r="I151" s="2"/>
+      <c r="K151" s="4"/>
     </row>
     <row r="152" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I152" s="3"/>
+      <c r="I152" s="2"/>
     </row>
     <row r="153" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I153" s="3"/>
+      <c r="I153" s="2"/>
     </row>
     <row r="154" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I154" s="3"/>
+      <c r="I154" s="2"/>
     </row>
     <row r="155" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I155" s="3"/>
+      <c r="I155" s="2"/>
     </row>
     <row r="156" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I156" s="3"/>
+      <c r="I156" s="2"/>
     </row>
     <row r="157" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I157" s="3"/>
+      <c r="I157" s="2"/>
     </row>
     <row r="158" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I158" s="3"/>
+      <c r="I158" s="2"/>
     </row>
     <row r="159" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I159" s="3"/>
+      <c r="I159" s="2"/>
     </row>
     <row r="160" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I160" s="3"/>
-      <c r="K160" s="5"/>
+      <c r="I160" s="2"/>
+      <c r="K160" s="4"/>
     </row>
     <row r="161" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I161" s="3"/>
-      <c r="K161" s="5"/>
+      <c r="I161" s="2"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I162" s="3"/>
+      <c r="I162" s="2"/>
     </row>
     <row r="163" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I163" s="3"/>
+      <c r="I163" s="2"/>
     </row>
     <row r="164" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I164" s="3"/>
+      <c r="I164" s="2"/>
     </row>
     <row r="165" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I165" s="3"/>
+      <c r="I165" s="2"/>
     </row>
     <row r="166" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I166" s="3"/>
+      <c r="I166" s="2"/>
     </row>
     <row r="167" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I167" s="3"/>
+      <c r="I167" s="2"/>
     </row>
     <row r="168" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I168" s="3"/>
+      <c r="I168" s="2"/>
     </row>
     <row r="169" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I169" s="3"/>
+      <c r="I169" s="2"/>
     </row>
     <row r="170" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I170" s="3"/>
+      <c r="I170" s="2"/>
     </row>
     <row r="171" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I171" s="3"/>
+      <c r="I171" s="2"/>
     </row>
     <row r="172" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I172" s="3"/>
+      <c r="I172" s="2"/>
     </row>
     <row r="173" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I173" s="3"/>
+      <c r="I173" s="2"/>
     </row>
     <row r="174" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I174" s="3"/>
+      <c r="I174" s="2"/>
     </row>
     <row r="175" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I175" s="3"/>
+      <c r="I175" s="2"/>
     </row>
     <row r="176" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I176" s="3"/>
+      <c r="I176" s="2"/>
     </row>
     <row r="177" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I177" s="3"/>
+      <c r="I177" s="2"/>
     </row>
     <row r="178" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I178" s="3"/>
+      <c r="I178" s="2"/>
     </row>
     <row r="179" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I179" s="3"/>
+      <c r="I179" s="2"/>
     </row>
     <row r="180" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I180" s="3"/>
+      <c r="I180" s="2"/>
     </row>
     <row r="181" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I181" s="3"/>
+      <c r="I181" s="2"/>
     </row>
     <row r="182" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I182" s="3"/>
+      <c r="I182" s="2"/>
     </row>
     <row r="183" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I183" s="3"/>
+      <c r="I183" s="2"/>
     </row>
     <row r="184" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I184" s="3"/>
+      <c r="I184" s="2"/>
     </row>
     <row r="185" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I185" s="3"/>
+      <c r="I185" s="2"/>
     </row>
     <row r="186" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I186" s="3"/>
+      <c r="I186" s="2"/>
     </row>
     <row r="187" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I187" s="3"/>
+      <c r="I187" s="2"/>
     </row>
     <row r="188" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I188" s="3"/>
+      <c r="I188" s="2"/>
     </row>
     <row r="189" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I189" s="3"/>
+      <c r="I189" s="2"/>
     </row>
     <row r="190" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I190" s="3"/>
+      <c r="I190" s="2"/>
     </row>
     <row r="191" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I191" s="3"/>
+      <c r="I191" s="2"/>
     </row>
     <row r="192" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I192" s="3"/>
+      <c r="I192" s="2"/>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I193" s="3"/>
+      <c r="I193" s="2"/>
     </row>
     <row r="194" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I194" s="3"/>
+      <c r="I194" s="2"/>
     </row>
     <row r="195" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I195" s="3"/>
+      <c r="I195" s="2"/>
     </row>
     <row r="196" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I196" s="3"/>
+      <c r="I196" s="2"/>
     </row>
     <row r="197" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I197" s="3"/>
+      <c r="I197" s="2"/>
     </row>
     <row r="198" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I198" s="3"/>
+      <c r="I198" s="2"/>
     </row>
     <row r="199" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I199" s="3"/>
+      <c r="I199" s="2"/>
     </row>
     <row r="200" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I200" s="3"/>
+      <c r="I200" s="2"/>
     </row>
     <row r="201" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I201" s="3"/>
+      <c r="I201" s="2"/>
     </row>
     <row r="202" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I202" s="3"/>
+      <c r="I202" s="2"/>
     </row>
     <row r="203" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I203" s="3"/>
+      <c r="I203" s="2"/>
     </row>
     <row r="204" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I204" s="3"/>
+      <c r="I204" s="2"/>
     </row>
     <row r="205" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I205" s="3"/>
+      <c r="I205" s="2"/>
     </row>
     <row r="206" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I206" s="3"/>
+      <c r="I206" s="2"/>
     </row>
     <row r="207" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I207" s="3"/>
+      <c r="I207" s="2"/>
     </row>
     <row r="208" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I208" s="3"/>
+      <c r="I208" s="2"/>
     </row>
     <row r="209" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I209" s="3"/>
+      <c r="I209" s="2"/>
     </row>
     <row r="210" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I210" s="3"/>
+      <c r="I210" s="2"/>
     </row>
     <row r="211" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I211" s="3"/>
+      <c r="I211" s="2"/>
     </row>
     <row r="212" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I212" s="3"/>
+      <c r="I212" s="2"/>
     </row>
     <row r="213" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I213" s="3"/>
+      <c r="I213" s="2"/>
     </row>
     <row r="214" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I214" s="3"/>
+      <c r="I214" s="2"/>
     </row>
     <row r="215" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I215" s="3"/>
+      <c r="I215" s="2"/>
     </row>
     <row r="216" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I216" s="3"/>
+      <c r="I216" s="2"/>
     </row>
     <row r="217" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I217" s="3"/>
+      <c r="I217" s="2"/>
     </row>
     <row r="218" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I218" s="3"/>
+      <c r="I218" s="2"/>
     </row>
     <row r="219" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I219" s="3"/>
+      <c r="I219" s="2"/>
     </row>
     <row r="220" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I220" s="3"/>
+      <c r="I220" s="2"/>
     </row>
     <row r="221" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I221" s="3"/>
+      <c r="I221" s="2"/>
     </row>
     <row r="222" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I222" s="3"/>
+      <c r="I222" s="2"/>
     </row>
     <row r="223" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I223" s="3"/>
+      <c r="I223" s="2"/>
     </row>
     <row r="224" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I224" s="3"/>
+      <c r="I224" s="2"/>
     </row>
     <row r="225" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I225" s="3"/>
+      <c r="I225" s="2"/>
     </row>
     <row r="226" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I226" s="3"/>
+      <c r="I226" s="2"/>
     </row>
     <row r="227" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I227" s="3"/>
+      <c r="I227" s="2"/>
     </row>
     <row r="228" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I228" s="3"/>
+      <c r="I228" s="2"/>
     </row>
     <row r="229" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I229" s="3"/>
+      <c r="I229" s="2"/>
     </row>
     <row r="230" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I230" s="3"/>
+      <c r="I230" s="2"/>
     </row>
     <row r="231" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I231" s="3"/>
+      <c r="I231" s="2"/>
     </row>
     <row r="232" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I232" s="3"/>
-      <c r="Q232" s="6"/>
+      <c r="I232" s="2"/>
+      <c r="Q232" s="5"/>
     </row>
     <row r="233" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I233" s="3"/>
-      <c r="Q233" s="6"/>
+      <c r="I233" s="2"/>
+      <c r="Q233" s="5"/>
     </row>
     <row r="234" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I234" s="3"/>
+      <c r="I234" s="2"/>
     </row>
     <row r="235" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I235" s="3"/>
+      <c r="I235" s="2"/>
     </row>
     <row r="236" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I236" s="3"/>
+      <c r="I236" s="2"/>
     </row>
     <row r="237" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I237" s="3"/>
+      <c r="I237" s="2"/>
     </row>
     <row r="238" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I238" s="3"/>
+      <c r="I238" s="2"/>
     </row>
     <row r="239" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I239" s="3"/>
+      <c r="I239" s="2"/>
     </row>
     <row r="240" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I240" s="3"/>
+      <c r="I240" s="2"/>
     </row>
     <row r="241" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I241" s="3"/>
+      <c r="I241" s="2"/>
     </row>
     <row r="242" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I242" s="3"/>
+      <c r="I242" s="2"/>
     </row>
     <row r="243" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I243" s="3"/>
+      <c r="I243" s="2"/>
     </row>
     <row r="244" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I244" s="3"/>
+      <c r="I244" s="2"/>
     </row>
     <row r="245" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I245" s="3"/>
+      <c r="I245" s="2"/>
     </row>
     <row r="246" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I246" s="3"/>
+      <c r="I246" s="2"/>
     </row>
     <row r="247" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I247" s="3"/>
+      <c r="I247" s="2"/>
     </row>
     <row r="248" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I248" s="3"/>
+      <c r="I248" s="2"/>
     </row>
     <row r="249" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I249" s="3"/>
+      <c r="I249" s="2"/>
     </row>
     <row r="250" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I250" s="3"/>
+      <c r="I250" s="2"/>
     </row>
     <row r="251" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I251" s="3"/>
+      <c r="I251" s="2"/>
     </row>
     <row r="252" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I252" s="3"/>
+      <c r="I252" s="2"/>
     </row>
     <row r="253" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I253" s="3"/>
+      <c r="I253" s="2"/>
     </row>
     <row r="254" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I254" s="3"/>
+      <c r="I254" s="2"/>
     </row>
     <row r="255" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I255" s="3"/>
+      <c r="I255" s="2"/>
     </row>
     <row r="256" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I256" s="3"/>
+      <c r="I256" s="2"/>
     </row>
     <row r="257" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I257" s="3"/>
+      <c r="I257" s="2"/>
     </row>
     <row r="258" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I258" s="3"/>
+      <c r="I258" s="2"/>
     </row>
     <row r="259" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I259" s="3"/>
+      <c r="I259" s="2"/>
     </row>
     <row r="260" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I260" s="3"/>
+      <c r="I260" s="2"/>
     </row>
     <row r="261" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I261" s="3"/>
+      <c r="I261" s="2"/>
     </row>
     <row r="262" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I262" s="3"/>
+      <c r="I262" s="2"/>
     </row>
     <row r="263" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I263" s="3"/>
+      <c r="I263" s="2"/>
     </row>
     <row r="264" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I264" s="3"/>
+      <c r="I264" s="2"/>
     </row>
     <row r="265" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I265" s="3"/>
-      <c r="K265" s="5"/>
+      <c r="I265" s="2"/>
+      <c r="K265" s="4"/>
     </row>
     <row r="266" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I266" s="3"/>
-      <c r="K266" s="5"/>
+      <c r="I266" s="2"/>
+      <c r="K266" s="4"/>
     </row>
     <row r="267" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I267" s="3"/>
-      <c r="K267" s="5"/>
+      <c r="I267" s="2"/>
+      <c r="K267" s="4"/>
     </row>
     <row r="268" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I268" s="3"/>
+      <c r="I268" s="2"/>
     </row>
     <row r="269" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I269" s="3"/>
-      <c r="K269" s="5"/>
+      <c r="I269" s="2"/>
+      <c r="K269" s="4"/>
     </row>
     <row r="270" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I270" s="3"/>
+      <c r="I270" s="2"/>
     </row>
     <row r="271" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I271" s="3"/>
-      <c r="K271" s="5"/>
+      <c r="I271" s="2"/>
+      <c r="K271" s="4"/>
     </row>
     <row r="272" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I272" s="3"/>
+      <c r="I272" s="2"/>
     </row>
     <row r="273" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I273" s="3"/>
+      <c r="I273" s="2"/>
     </row>
     <row r="274" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I274" s="3"/>
-      <c r="K274" s="5"/>
+      <c r="I274" s="2"/>
+      <c r="K274" s="4"/>
     </row>
     <row r="275" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I275" s="3"/>
-      <c r="K275" s="5"/>
+      <c r="I275" s="2"/>
+      <c r="K275" s="4"/>
     </row>
     <row r="276" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I276" s="3"/>
+      <c r="I276" s="2"/>
     </row>
     <row r="277" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I277" s="3"/>
-      <c r="K277" s="5"/>
+      <c r="I277" s="2"/>
+      <c r="K277" s="4"/>
     </row>
     <row r="278" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I278" s="3"/>
+      <c r="I278" s="2"/>
     </row>
     <row r="279" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I279" s="3"/>
-      <c r="K279" s="5"/>
+      <c r="I279" s="2"/>
+      <c r="K279" s="4"/>
     </row>
     <row r="280" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I280" s="3"/>
+      <c r="I280" s="2"/>
     </row>
     <row r="281" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I281" s="3"/>
-      <c r="K281" s="5"/>
+      <c r="I281" s="2"/>
+      <c r="K281" s="4"/>
     </row>
     <row r="282" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I282" s="3"/>
+      <c r="I282" s="2"/>
     </row>
     <row r="283" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I283" s="3"/>
+      <c r="I283" s="2"/>
     </row>
     <row r="284" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I284" s="3"/>
-      <c r="K284" s="5"/>
+      <c r="I284" s="2"/>
+      <c r="K284" s="4"/>
     </row>
     <row r="285" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I285" s="3"/>
-      <c r="K285" s="5"/>
+      <c r="I285" s="2"/>
+      <c r="K285" s="4"/>
     </row>
     <row r="286" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I286" s="3"/>
-      <c r="K286" s="5"/>
+      <c r="I286" s="2"/>
+      <c r="K286" s="4"/>
     </row>
     <row r="287" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I287" s="3"/>
-      <c r="K287" s="5"/>
+      <c r="I287" s="2"/>
+      <c r="K287" s="4"/>
     </row>
     <row r="288" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I288" s="3"/>
+      <c r="I288" s="2"/>
     </row>
     <row r="289" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I289" s="3"/>
-      <c r="K289" s="5"/>
+      <c r="I289" s="2"/>
+      <c r="K289" s="4"/>
     </row>
     <row r="290" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I290" s="3"/>
-      <c r="K290" s="5"/>
+      <c r="I290" s="2"/>
+      <c r="K290" s="4"/>
     </row>
     <row r="291" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I291" s="3"/>
-      <c r="K291" s="5"/>
+      <c r="I291" s="2"/>
+      <c r="K291" s="4"/>
     </row>
     <row r="292" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I292" s="3"/>
+      <c r="I292" s="2"/>
     </row>
     <row r="293" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I293" s="3"/>
-      <c r="K293" s="5"/>
+      <c r="I293" s="2"/>
+      <c r="K293" s="4"/>
     </row>
     <row r="294" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I294" s="3"/>
+      <c r="I294" s="2"/>
     </row>
     <row r="295" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I295" s="3"/>
+      <c r="I295" s="2"/>
     </row>
     <row r="296" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I296" s="3"/>
+      <c r="I296" s="2"/>
     </row>
     <row r="297" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I297" s="3"/>
+      <c r="I297" s="2"/>
     </row>
     <row r="298" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I298" s="3"/>
+      <c r="I298" s="2"/>
     </row>
     <row r="299" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I299" s="3"/>
+      <c r="I299" s="2"/>
     </row>
     <row r="300" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I300" s="3"/>
+      <c r="I300" s="2"/>
     </row>
     <row r="301" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I301" s="3"/>
+      <c r="I301" s="2"/>
     </row>
     <row r="302" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I302" s="3"/>
+      <c r="I302" s="2"/>
     </row>
     <row r="303" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I303" s="3"/>
+      <c r="I303" s="2"/>
     </row>
     <row r="304" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I304" s="3"/>
+      <c r="I304" s="2"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I305" s="3"/>
+      <c r="I305" s="2"/>
     </row>
     <row r="306" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I306" s="3"/>
+      <c r="I306" s="2"/>
     </row>
     <row r="307" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I307" s="3"/>
+      <c r="I307" s="2"/>
     </row>
     <row r="308" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I308" s="3"/>
+      <c r="I308" s="2"/>
     </row>
     <row r="309" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I309" s="3"/>
+      <c r="I309" s="2"/>
     </row>
     <row r="310" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I310" s="3"/>
+      <c r="I310" s="2"/>
     </row>
     <row r="311" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I311" s="3"/>
+      <c r="I311" s="2"/>
     </row>
     <row r="312" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I312" s="3"/>
+      <c r="I312" s="2"/>
     </row>
     <row r="313" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I313" s="3"/>
+      <c r="I313" s="2"/>
     </row>
     <row r="314" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I314" s="3"/>
+      <c r="I314" s="2"/>
     </row>
     <row r="315" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I315" s="3"/>
+      <c r="I315" s="2"/>
     </row>
     <row r="316" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I316" s="3"/>
+      <c r="I316" s="2"/>
     </row>
     <row r="317" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I317" s="3"/>
+      <c r="I317" s="2"/>
     </row>
     <row r="318" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I318" s="3"/>
+      <c r="I318" s="2"/>
     </row>
     <row r="319" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I319" s="3"/>
+      <c r="I319" s="2"/>
     </row>
     <row r="320" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I320" s="3"/>
+      <c r="I320" s="2"/>
     </row>
     <row r="321" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I321" s="3"/>
+      <c r="I321" s="2"/>
     </row>
     <row r="322" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I322" s="3"/>
+      <c r="I322" s="2"/>
     </row>
     <row r="323" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I323" s="3"/>
+      <c r="I323" s="2"/>
     </row>
     <row r="324" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I324" s="3"/>
+      <c r="I324" s="2"/>
     </row>
     <row r="325" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I325" s="3"/>
+      <c r="I325" s="2"/>
     </row>
     <row r="326" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I326" s="3"/>
+      <c r="I326" s="2"/>
     </row>
     <row r="327" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I327" s="3"/>
+      <c r="I327" s="2"/>
     </row>
     <row r="328" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I328" s="3"/>
+      <c r="I328" s="2"/>
     </row>
     <row r="329" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I329" s="3"/>
+      <c r="I329" s="2"/>
     </row>
     <row r="330" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I330" s="3"/>
+      <c r="I330" s="2"/>
     </row>
     <row r="331" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I331" s="3"/>
+      <c r="I331" s="2"/>
     </row>
     <row r="332" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I332" s="3"/>
+      <c r="I332" s="2"/>
     </row>
     <row r="333" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I333" s="3"/>
+      <c r="I333" s="2"/>
     </row>
     <row r="334" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I334" s="3"/>
+      <c r="I334" s="2"/>
     </row>
     <row r="335" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I335" s="3"/>
+      <c r="I335" s="2"/>
     </row>
     <row r="336" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I336" s="3"/>
+      <c r="I336" s="2"/>
     </row>
     <row r="337" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I337" s="3"/>
+      <c r="I337" s="2"/>
     </row>
     <row r="338" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I338" s="3"/>
+      <c r="I338" s="2"/>
     </row>
     <row r="339" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I339" s="3"/>
+      <c r="I339" s="2"/>
     </row>
     <row r="340" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I340" s="3"/>
+      <c r="I340" s="2"/>
     </row>
     <row r="341" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I341" s="3"/>
+      <c r="I341" s="2"/>
     </row>
     <row r="342" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I342" s="3"/>
+      <c r="I342" s="2"/>
     </row>
     <row r="343" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I343" s="3"/>
+      <c r="I343" s="2"/>
     </row>
     <row r="344" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I344" s="3"/>
+      <c r="I344" s="2"/>
     </row>
     <row r="345" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I345" s="3"/>
+      <c r="I345" s="2"/>
     </row>
     <row r="346" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I346" s="3"/>
+      <c r="I346" s="2"/>
     </row>
     <row r="347" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I347" s="3"/>
+      <c r="I347" s="2"/>
     </row>
     <row r="348" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I348" s="3"/>
+      <c r="I348" s="2"/>
     </row>
     <row r="349" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I349" s="3"/>
+      <c r="I349" s="2"/>
     </row>
     <row r="350" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I350" s="3"/>
+      <c r="I350" s="2"/>
     </row>
     <row r="351" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I351" s="3"/>
+      <c r="I351" s="2"/>
     </row>
     <row r="352" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I352" s="3"/>
+      <c r="I352" s="2"/>
     </row>
     <row r="353" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I353" s="3"/>
+      <c r="I353" s="2"/>
     </row>
     <row r="354" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I354" s="3"/>
+      <c r="I354" s="2"/>
     </row>
     <row r="355" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I355" s="3"/>
+      <c r="I355" s="2"/>
     </row>
     <row r="356" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I356" s="3"/>
+      <c r="I356" s="2"/>
     </row>
     <row r="357" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I357" s="3"/>
+      <c r="I357" s="2"/>
     </row>
     <row r="358" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I358" s="3"/>
+      <c r="I358" s="2"/>
     </row>
     <row r="359" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I359" s="3"/>
-      <c r="K359" s="5"/>
+      <c r="I359" s="2"/>
+      <c r="K359" s="4"/>
     </row>
     <row r="360" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I360" s="3"/>
-      <c r="K360" s="5"/>
+      <c r="I360" s="2"/>
+      <c r="K360" s="4"/>
     </row>
     <row r="361" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I361" s="3"/>
-      <c r="K361" s="5"/>
+      <c r="I361" s="2"/>
+      <c r="K361" s="4"/>
     </row>
     <row r="362" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I362" s="3"/>
+      <c r="I362" s="2"/>
     </row>
     <row r="363" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I363" s="3"/>
+      <c r="I363" s="2"/>
     </row>
     <row r="364" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I364" s="3"/>
-      <c r="K364" s="5"/>
+      <c r="I364" s="2"/>
+      <c r="K364" s="4"/>
     </row>
     <row r="365" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I365" s="3"/>
+      <c r="I365" s="2"/>
     </row>
     <row r="366" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I366" s="3"/>
-      <c r="K366" s="5"/>
+      <c r="I366" s="2"/>
+      <c r="K366" s="4"/>
     </row>
     <row r="367" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I367" s="3"/>
+      <c r="I367" s="2"/>
     </row>
     <row r="368" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I368" s="3"/>
-      <c r="K368" s="5"/>
+      <c r="I368" s="2"/>
+      <c r="K368" s="4"/>
     </row>
     <row r="369" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I369" s="3"/>
+      <c r="I369" s="2"/>
     </row>
     <row r="370" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I370" s="3"/>
-      <c r="K370" s="5"/>
+      <c r="I370" s="2"/>
+      <c r="K370" s="4"/>
     </row>
     <row r="371" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I371" s="3"/>
+      <c r="I371" s="2"/>
     </row>
     <row r="372" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I372" s="3"/>
+      <c r="I372" s="2"/>
     </row>
     <row r="373" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I373" s="3"/>
-      <c r="K373" s="5"/>
+      <c r="I373" s="2"/>
+      <c r="K373" s="4"/>
     </row>
     <row r="374" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I374" s="3"/>
+      <c r="I374" s="2"/>
     </row>
     <row r="375" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I375" s="3"/>
-      <c r="K375" s="5"/>
+      <c r="I375" s="2"/>
+      <c r="K375" s="4"/>
     </row>
     <row r="376" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I376" s="3"/>
+      <c r="I376" s="2"/>
     </row>
     <row r="377" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I377" s="3"/>
-      <c r="K377" s="5"/>
+      <c r="I377" s="2"/>
+      <c r="K377" s="4"/>
     </row>
     <row r="378" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I378" s="3"/>
+      <c r="I378" s="2"/>
     </row>
     <row r="379" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I379" s="3"/>
-      <c r="K379" s="5"/>
+      <c r="I379" s="2"/>
+      <c r="K379" s="4"/>
     </row>
     <row r="380" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I380" s="3"/>
+      <c r="I380" s="2"/>
     </row>
     <row r="381" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I381" s="3"/>
-      <c r="K381" s="5"/>
+      <c r="I381" s="2"/>
+      <c r="K381" s="4"/>
     </row>
     <row r="382" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I382" s="3"/>
+      <c r="I382" s="2"/>
     </row>
     <row r="383" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I383" s="3"/>
+      <c r="I383" s="2"/>
     </row>
     <row r="384" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I384" s="3"/>
+      <c r="I384" s="2"/>
     </row>
     <row r="385" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I385" s="3"/>
+      <c r="I385" s="2"/>
     </row>
     <row r="386" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I386" s="3"/>
+      <c r="I386" s="2"/>
     </row>
     <row r="387" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I387" s="3"/>
+      <c r="I387" s="2"/>
     </row>
     <row r="388" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I388" s="3"/>
+      <c r="I388" s="2"/>
     </row>
     <row r="389" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I389" s="3"/>
+      <c r="I389" s="2"/>
     </row>
     <row r="390" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I390" s="3"/>
+      <c r="I390" s="2"/>
     </row>
     <row r="391" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I391" s="3"/>
+      <c r="I391" s="2"/>
     </row>
     <row r="392" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I392" s="3"/>
+      <c r="I392" s="2"/>
     </row>
     <row r="393" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I393" s="3"/>
+      <c r="I393" s="2"/>
     </row>
     <row r="394" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I394" s="3"/>
+      <c r="I394" s="2"/>
     </row>
     <row r="395" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I395" s="3"/>
+      <c r="I395" s="2"/>
     </row>
     <row r="396" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I396" s="3"/>
+      <c r="I396" s="2"/>
     </row>
     <row r="397" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I397" s="3"/>
+      <c r="I397" s="2"/>
     </row>
     <row r="398" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I398" s="3"/>
+      <c r="I398" s="2"/>
     </row>
     <row r="399" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I399" s="3"/>
+      <c r="I399" s="2"/>
     </row>
     <row r="400" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I400" s="3"/>
+      <c r="I400" s="2"/>
     </row>
     <row r="401" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I401" s="3"/>
+      <c r="I401" s="2"/>
     </row>
     <row r="402" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I402" s="3"/>
+      <c r="I402" s="2"/>
     </row>
     <row r="403" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I403" s="3"/>
+      <c r="I403" s="2"/>
     </row>
     <row r="404" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I404" s="3"/>
+      <c r="I404" s="2"/>
     </row>
     <row r="405" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I405" s="3"/>
+      <c r="I405" s="2"/>
     </row>
     <row r="406" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I406" s="3"/>
+      <c r="I406" s="2"/>
     </row>
     <row r="407" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I407" s="3"/>
+      <c r="I407" s="2"/>
     </row>
     <row r="408" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I408" s="3"/>
+      <c r="I408" s="2"/>
     </row>
     <row r="409" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I409" s="3"/>
+      <c r="I409" s="2"/>
     </row>
     <row r="410" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I410" s="3"/>
+      <c r="I410" s="2"/>
     </row>
     <row r="411" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I411" s="3"/>
+      <c r="I411" s="2"/>
     </row>
     <row r="412" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I412" s="3"/>
+      <c r="I412" s="2"/>
     </row>
     <row r="413" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I413" s="3"/>
+      <c r="I413" s="2"/>
     </row>
     <row r="414" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I414" s="3"/>
+      <c r="I414" s="2"/>
     </row>
     <row r="415" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I415" s="3"/>
+      <c r="I415" s="2"/>
     </row>
     <row r="416" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I416" s="3"/>
+      <c r="I416" s="2"/>
     </row>
     <row r="417" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I417" s="3"/>
+      <c r="I417" s="2"/>
     </row>
     <row r="418" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I418" s="3"/>
+      <c r="I418" s="2"/>
     </row>
     <row r="419" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I419" s="3"/>
+      <c r="I419" s="2"/>
     </row>
     <row r="420" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I420" s="3"/>
+      <c r="I420" s="2"/>
     </row>
     <row r="421" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I421" s="3"/>
+      <c r="I421" s="2"/>
     </row>
     <row r="422" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I422" s="3"/>
+      <c r="I422" s="2"/>
     </row>
     <row r="423" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I423" s="3"/>
+      <c r="I423" s="2"/>
     </row>
     <row r="424" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I424" s="3"/>
+      <c r="I424" s="2"/>
     </row>
     <row r="425" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I425" s="3"/>
+      <c r="I425" s="2"/>
     </row>
     <row r="426" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I426" s="3"/>
+      <c r="I426" s="2"/>
     </row>
     <row r="427" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I427" s="3"/>
+      <c r="I427" s="2"/>
     </row>
     <row r="428" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I428" s="3"/>
+      <c r="I428" s="2"/>
     </row>
     <row r="429" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I429" s="3"/>
+      <c r="I429" s="2"/>
     </row>
     <row r="430" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I430" s="3"/>
+      <c r="I430" s="2"/>
     </row>
     <row r="431" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I431" s="3"/>
+      <c r="I431" s="2"/>
     </row>
     <row r="432" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I432" s="3"/>
+      <c r="I432" s="2"/>
     </row>
     <row r="433" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I433" s="3"/>
+      <c r="I433" s="2"/>
     </row>
     <row r="434" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I434" s="3"/>
+      <c r="I434" s="2"/>
     </row>
     <row r="435" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I435" s="3"/>
+      <c r="I435" s="2"/>
     </row>
     <row r="436" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I436" s="3"/>
+      <c r="I436" s="2"/>
     </row>
     <row r="437" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I437" s="3"/>
+      <c r="I437" s="2"/>
     </row>
     <row r="438" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I438" s="3"/>
+      <c r="I438" s="2"/>
     </row>
     <row r="439" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I439" s="3"/>
+      <c r="I439" s="2"/>
     </row>
     <row r="440" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I440" s="3"/>
+      <c r="I440" s="2"/>
     </row>
     <row r="441" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I441" s="3"/>
+      <c r="I441" s="2"/>
     </row>
     <row r="442" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I442" s="3"/>
+      <c r="I442" s="2"/>
     </row>
     <row r="443" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I443" s="3"/>
+      <c r="I443" s="2"/>
     </row>
     <row r="444" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I444" s="3"/>
+      <c r="I444" s="2"/>
     </row>
     <row r="445" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I445" s="3"/>
+      <c r="I445" s="2"/>
     </row>
     <row r="446" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I446" s="3"/>
+      <c r="I446" s="2"/>
     </row>
     <row r="447" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I447" s="3"/>
+      <c r="I447" s="2"/>
     </row>
     <row r="448" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I448" s="3"/>
+      <c r="I448" s="2"/>
     </row>
     <row r="449" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I449" s="3"/>
+      <c r="I449" s="2"/>
     </row>
     <row r="450" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I450" s="3"/>
+      <c r="I450" s="2"/>
     </row>
     <row r="451" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I451" s="3"/>
+      <c r="I451" s="2"/>
     </row>
     <row r="452" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I452" s="3"/>
+      <c r="I452" s="2"/>
     </row>
     <row r="453" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I453" s="3"/>
+      <c r="I453" s="2"/>
     </row>
     <row r="454" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I454" s="3"/>
+      <c r="I454" s="2"/>
     </row>
     <row r="455" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I455" s="3"/>
+      <c r="I455" s="2"/>
     </row>
     <row r="456" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I456" s="3"/>
+      <c r="I456" s="2"/>
     </row>
     <row r="457" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I457" s="3"/>
+      <c r="I457" s="2"/>
     </row>
     <row r="458" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I458" s="3"/>
+      <c r="I458" s="2"/>
     </row>
     <row r="459" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I459" s="3"/>
+      <c r="I459" s="2"/>
     </row>
     <row r="460" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I460" s="3"/>
+      <c r="I460" s="2"/>
     </row>
     <row r="461" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I461" s="3"/>
+      <c r="I461" s="2"/>
     </row>
     <row r="462" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I462" s="3"/>
+      <c r="I462" s="2"/>
     </row>
     <row r="463" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I463" s="3"/>
+      <c r="I463" s="2"/>
     </row>
     <row r="464" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I464" s="3"/>
+      <c r="I464" s="2"/>
     </row>
     <row r="465" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I465" s="3"/>
+      <c r="I465" s="2"/>
     </row>
     <row r="466" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I466" s="3"/>
+      <c r="I466" s="2"/>
     </row>
     <row r="467" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I467" s="3"/>
+      <c r="I467" s="2"/>
     </row>
     <row r="468" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I468" s="3"/>
+      <c r="I468" s="2"/>
     </row>
     <row r="469" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I469" s="3"/>
+      <c r="I469" s="2"/>
     </row>
     <row r="470" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I470" s="3"/>
+      <c r="I470" s="2"/>
     </row>
     <row r="471" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I471" s="3"/>
+      <c r="I471" s="2"/>
     </row>
     <row r="472" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I472" s="3"/>
+      <c r="I472" s="2"/>
     </row>
     <row r="473" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I473" s="3"/>
+      <c r="I473" s="2"/>
     </row>
     <row r="474" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I474" s="3"/>
+      <c r="I474" s="2"/>
     </row>
     <row r="475" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I475" s="3"/>
+      <c r="I475" s="2"/>
     </row>
     <row r="476" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I476" s="3"/>
+      <c r="I476" s="2"/>
     </row>
     <row r="477" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I477" s="3"/>
+      <c r="I477" s="2"/>
     </row>
     <row r="478" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I478" s="3"/>
-      <c r="K478" s="5"/>
+      <c r="I478" s="2"/>
+      <c r="K478" s="4"/>
     </row>
     <row r="479" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I479" s="3"/>
-      <c r="K479" s="5"/>
+      <c r="I479" s="2"/>
+      <c r="K479" s="4"/>
     </row>
     <row r="480" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I480" s="3"/>
-      <c r="K480" s="5"/>
+      <c r="I480" s="2"/>
+      <c r="K480" s="4"/>
     </row>
     <row r="481" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I481" s="3"/>
+      <c r="I481" s="2"/>
     </row>
     <row r="482" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I482" s="3"/>
+      <c r="I482" s="2"/>
     </row>
     <row r="483" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I483" s="3"/>
+      <c r="I483" s="2"/>
     </row>
     <row r="484" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I484" s="3"/>
-      <c r="K484" s="5"/>
+      <c r="I484" s="2"/>
+      <c r="K484" s="4"/>
     </row>
     <row r="485" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I485" s="3"/>
+      <c r="I485" s="2"/>
     </row>
     <row r="486" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I486" s="3"/>
-      <c r="K486" s="5"/>
+      <c r="I486" s="2"/>
+      <c r="K486" s="4"/>
     </row>
     <row r="487" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I487" s="3"/>
+      <c r="I487" s="2"/>
     </row>
     <row r="488" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I488" s="3"/>
-      <c r="K488" s="5"/>
+      <c r="I488" s="2"/>
+      <c r="K488" s="4"/>
     </row>
     <row r="489" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I489" s="3"/>
+      <c r="I489" s="2"/>
     </row>
     <row r="490" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I490" s="3"/>
+      <c r="I490" s="2"/>
     </row>
     <row r="491" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I491" s="3"/>
-      <c r="K491" s="5"/>
+      <c r="I491" s="2"/>
+      <c r="K491" s="4"/>
     </row>
     <row r="492" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I492" s="3"/>
+      <c r="I492" s="2"/>
     </row>
     <row r="493" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I493" s="3"/>
-      <c r="K493" s="5"/>
+      <c r="I493" s="2"/>
+      <c r="K493" s="4"/>
     </row>
     <row r="494" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I494" s="3"/>
+      <c r="I494" s="2"/>
     </row>
     <row r="495" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I495" s="3"/>
-      <c r="K495" s="5"/>
+      <c r="I495" s="2"/>
+      <c r="K495" s="4"/>
     </row>
     <row r="496" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I496" s="3"/>
+      <c r="I496" s="2"/>
     </row>
     <row r="497" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I497" s="3"/>
-      <c r="K497" s="5"/>
+      <c r="I497" s="2"/>
+      <c r="K497" s="4"/>
     </row>
     <row r="498" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I498" s="3"/>
+      <c r="I498" s="2"/>
     </row>
     <row r="499" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I499" s="3"/>
-      <c r="K499" s="5"/>
+      <c r="I499" s="2"/>
+      <c r="K499" s="4"/>
     </row>
     <row r="500" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I500" s="3"/>
+      <c r="I500" s="2"/>
     </row>
     <row r="501" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I501" s="3"/>
+      <c r="I501" s="2"/>
     </row>
     <row r="502" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I502" s="3"/>
+      <c r="I502" s="2"/>
     </row>
     <row r="503" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I503" s="3"/>
+      <c r="I503" s="2"/>
     </row>
     <row r="504" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I504" s="3"/>
+      <c r="I504" s="2"/>
     </row>
     <row r="505" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I505" s="3"/>
+      <c r="I505" s="2"/>
     </row>
     <row r="506" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I506" s="3"/>
+      <c r="I506" s="2"/>
     </row>
     <row r="507" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I507" s="3"/>
+      <c r="I507" s="2"/>
     </row>
     <row r="508" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I508" s="3"/>
+      <c r="I508" s="2"/>
     </row>
     <row r="509" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I509" s="3"/>
+      <c r="I509" s="2"/>
     </row>
     <row r="510" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I510" s="3"/>
+      <c r="I510" s="2"/>
     </row>
     <row r="511" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I511" s="3"/>
+      <c r="I511" s="2"/>
     </row>
     <row r="512" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I512" s="3"/>
+      <c r="I512" s="2"/>
     </row>
     <row r="513" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I513" s="3"/>
+      <c r="I513" s="2"/>
     </row>
     <row r="514" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I514" s="3"/>
+      <c r="I514" s="2"/>
     </row>
     <row r="515" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I515" s="3"/>
+      <c r="I515" s="2"/>
     </row>
     <row r="516" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I516" s="3"/>
+      <c r="I516" s="2"/>
     </row>
     <row r="517" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I517" s="3"/>
+      <c r="I517" s="2"/>
     </row>
     <row r="518" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I518" s="3"/>
+      <c r="I518" s="2"/>
     </row>
     <row r="519" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I519" s="3"/>
+      <c r="I519" s="2"/>
     </row>
     <row r="520" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I520" s="3"/>
+      <c r="I520" s="2"/>
     </row>
     <row r="521" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I521" s="3"/>
+      <c r="I521" s="2"/>
     </row>
     <row r="522" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I522" s="3"/>
+      <c r="I522" s="2"/>
     </row>
     <row r="523" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I523" s="3"/>
+      <c r="I523" s="2"/>
     </row>
     <row r="524" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I524" s="3"/>
+      <c r="I524" s="2"/>
     </row>
     <row r="525" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I525" s="3"/>
+      <c r="I525" s="2"/>
     </row>
     <row r="526" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I526" s="3"/>
+      <c r="I526" s="2"/>
     </row>
     <row r="527" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I527" s="3"/>
+      <c r="I527" s="2"/>
     </row>
     <row r="528" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I528" s="3"/>
+      <c r="I528" s="2"/>
     </row>
     <row r="529" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I529" s="3"/>
+      <c r="I529" s="2"/>
     </row>
     <row r="530" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I530" s="3"/>
+      <c r="I530" s="2"/>
     </row>
     <row r="531" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I531" s="3"/>
+      <c r="I531" s="2"/>
     </row>
     <row r="532" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I532" s="3"/>
+      <c r="I532" s="2"/>
     </row>
     <row r="533" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I533" s="3"/>
+      <c r="I533" s="2"/>
     </row>
     <row r="534" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I534" s="3"/>
+      <c r="I534" s="2"/>
     </row>
     <row r="535" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I535" s="3"/>
+      <c r="I535" s="2"/>
     </row>
     <row r="536" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I536" s="3"/>
+      <c r="I536" s="2"/>
     </row>
     <row r="537" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I537" s="3"/>
+      <c r="I537" s="2"/>
     </row>
     <row r="538" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I538" s="3"/>
+      <c r="I538" s="2"/>
     </row>
     <row r="539" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I539" s="3"/>
+      <c r="I539" s="2"/>
     </row>
     <row r="540" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I540" s="3"/>
+      <c r="I540" s="2"/>
     </row>
     <row r="541" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I541" s="3"/>
+      <c r="I541" s="2"/>
     </row>
     <row r="542" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I542" s="3"/>
+      <c r="I542" s="2"/>
     </row>
     <row r="543" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I543" s="3"/>
+      <c r="I543" s="2"/>
     </row>
     <row r="544" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I544" s="3"/>
+      <c r="I544" s="2"/>
     </row>
     <row r="545" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I545" s="3"/>
+      <c r="I545" s="2"/>
     </row>
     <row r="546" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I546" s="3"/>
+      <c r="I546" s="2"/>
     </row>
     <row r="547" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I547" s="3"/>
+      <c r="I547" s="2"/>
     </row>
     <row r="548" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I548" s="3"/>
+      <c r="I548" s="2"/>
     </row>
     <row r="549" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I549" s="3"/>
+      <c r="I549" s="2"/>
     </row>
     <row r="550" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I550" s="3"/>
+      <c r="I550" s="2"/>
     </row>
     <row r="551" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I551" s="3"/>
+      <c r="I551" s="2"/>
     </row>
     <row r="552" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I552" s="3"/>
+      <c r="I552" s="2"/>
     </row>
     <row r="553" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I553" s="3"/>
+      <c r="I553" s="2"/>
     </row>
     <row r="554" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I554" s="3"/>
+      <c r="I554" s="2"/>
     </row>
     <row r="555" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I555" s="3"/>
+      <c r="I555" s="2"/>
     </row>
     <row r="556" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I556" s="3"/>
+      <c r="I556" s="2"/>
     </row>
     <row r="557" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I557" s="3"/>
+      <c r="I557" s="2"/>
     </row>
     <row r="558" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I558" s="3"/>
+      <c r="I558" s="2"/>
     </row>
     <row r="559" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I559" s="3"/>
+      <c r="I559" s="2"/>
     </row>
     <row r="560" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I560" s="3"/>
+      <c r="I560" s="2"/>
     </row>
     <row r="561" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I561" s="3"/>
+      <c r="I561" s="2"/>
     </row>
     <row r="562" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I562" s="3"/>
+      <c r="I562" s="2"/>
     </row>
     <row r="563" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I563" s="3"/>
+      <c r="I563" s="2"/>
     </row>
     <row r="564" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I564" s="3"/>
+      <c r="I564" s="2"/>
     </row>
     <row r="565" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I565" s="3"/>
+      <c r="I565" s="2"/>
     </row>
     <row r="566" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I566" s="3"/>
+      <c r="I566" s="2"/>
     </row>
     <row r="567" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I567" s="3"/>
+      <c r="I567" s="2"/>
     </row>
     <row r="568" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I568" s="3"/>
+      <c r="I568" s="2"/>
     </row>
     <row r="569" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I569" s="3"/>
+      <c r="I569" s="2"/>
     </row>
     <row r="570" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I570" s="3"/>
+      <c r="I570" s="2"/>
     </row>
     <row r="571" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I571" s="3"/>
+      <c r="I571" s="2"/>
     </row>
     <row r="572" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I572" s="3"/>
+      <c r="I572" s="2"/>
     </row>
     <row r="573" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I573" s="3"/>
+      <c r="I573" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V710">
